--- a/data/raw/precios_medios_percibidos.xlsx
+++ b/data/raw/precios_medios_percibidos.xlsx
@@ -20,7 +20,7 @@
     <comment ref="B11" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
-Confidencialidad primaria debido a número mínimo de unidades (A)
+No publicable, restringido para uso interno solamente (N)
 </t>
       </text>
     </comment>
@@ -33,298 +33,298 @@
     </comment>
     <comment ref="D11" authorId="0">
       <text>
-        <t xml:space="preserve">Valor no disponible (O)
-Abierto (libre para publicación) (F)
-</t>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0">
-      <text>
-        <t xml:space="preserve">Valor no disponible (O)
-Abierto (libre para publicación) (F)
-</t>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0">
-      <text>
-        <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
-</t>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="0">
-      <text>
         <t xml:space="preserve">Valor provisional (P)
 Confidencialidad primaria debido a número mínimo de unidades (A)
 </t>
       </text>
     </comment>
-    <comment ref="D12" authorId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <t xml:space="preserve">Valor no disponible (O)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="B12" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 No publicable, restringido para uso interno solamente (N)
 </t>
       </text>
     </comment>
+    <comment ref="C12" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor provisional (P)
+Confidencialidad primaria debido a número mínimo de unidades (A)
+</t>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor provisional (P)
+Confidencialidad primaria debido a número mínimo de unidades (A)
+</t>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor no disponible (O)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
     <comment ref="B13" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
+No publicable, restringido para uso interno solamente (N)
 </t>
       </text>
     </comment>
     <comment ref="C13" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
+Confidencialidad primaria debido a número mínimo de unidades (A)
 </t>
       </text>
     </comment>
     <comment ref="D13" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
+Confidencialidad primaria debido a número mínimo de unidades (A)
 </t>
       </text>
     </comment>
     <comment ref="E13" authorId="0">
       <text>
+        <t xml:space="preserve">Valor no disponible (O)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0">
+      <text>
         <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
-</t>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0">
+No publicable, restringido para uso interno solamente (N)
+</t>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
-</t>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0">
+Confidencialidad primaria debido a número mínimo de unidades (A)
+</t>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
-</t>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0">
+No publicable, restringido para uso interno solamente (N)
+</t>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor no disponible (O)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
-</t>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0">
+No publicable, restringido para uso interno solamente (N)
+</t>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
-</t>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0">
+Confidencialidad primaria debido a número mínimo de unidades (A)
+</t>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor no disponible (O)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
-</t>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0">
+Confidencialidad primaria debido a número mínimo de unidades (A)
+</t>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="D15" authorId="0">
+    <comment ref="C16" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="E15" authorId="0">
+    <comment ref="D16" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="E16" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="C16" authorId="0">
+    <comment ref="B17" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="D16" authorId="0">
+    <comment ref="C17" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="E16" authorId="0">
+    <comment ref="D17" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="E17" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="B18" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="D17" authorId="0">
+    <comment ref="C18" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="E17" authorId="0">
+    <comment ref="D18" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="E18" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="B19" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="D18" authorId="0">
+    <comment ref="C19" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="D19" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="E19" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="C19" authorId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="C20" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="E19" authorId="0">
+    <comment ref="D20" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="E20" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="B21" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="D20" authorId="0">
+    <comment ref="C21" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="E20" authorId="0">
+    <comment ref="D21" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="B21" authorId="0">
+    <comment ref="E21" authorId="0">
       <text>
         <t xml:space="preserve">Valor provisional (P)
 Abierto (libre para publicación) (F)
 </t>
       </text>
     </comment>
-    <comment ref="C21" authorId="0">
-      <text>
-        <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
-</t>
-      </text>
-    </comment>
-    <comment ref="D21" authorId="0">
-      <text>
-        <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
-</t>
-      </text>
-    </comment>
-    <comment ref="E21" authorId="0">
-      <text>
-        <t xml:space="preserve">Valor provisional (P)
-Abierto (libre para publicación) (F)
-</t>
-      </text>
-    </comment>
     <comment ref="B22" authorId="0">
       <text>
         <t xml:space="preserve">Valor normal (A)
@@ -9307,6 +9307,146 @@
       </text>
     </comment>
     <comment ref="E342" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="B343" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="C343" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="D343" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="E343" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="B344" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="C344" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="D344" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="E344" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="B345" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="C345" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="D345" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="E345" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="B346" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="C346" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="D346" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="E346" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="B347" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="C347" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="D347" authorId="0">
+      <text>
+        <t xml:space="preserve">Valor normal (A)
+Abierto (libre para publicación) (F)
+</t>
+      </text>
+    </comment>
+    <comment ref="E347" authorId="0">
       <text>
         <t xml:space="preserve">Valor normal (A)
 Abierto (libre para publicación) (F)
@@ -9451,21 +9591,21 @@
     <row r="7">
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>En origen</t>
+          <t>Plátanos</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Precio medio ponderado</t>
+          <t>En origen</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Plátanos</t>
+          <t>Precio medio ponderado</t>
         </is>
       </c>
     </row>
@@ -9494,7 +9634,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 21</t>
+          <t>2022 Semana 26</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -9505,12 +9645,10 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 20</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>1.58</v>
-      </c>
+          <t>2022 Semana 25</t>
+        </is>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -9518,188 +9656,164 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 17</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0.99</v>
-      </c>
+          <t>2022 Semana 24</t>
+        </is>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 16</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0.99</v>
-      </c>
+          <t>2022 Semana 23</t>
+        </is>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 15</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0.97</v>
-      </c>
+          <t>2022 Semana 22</t>
+        </is>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 14</t>
+          <t>2022 Semana 21</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.0</v>
+        <v>1.33</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.91</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 13</t>
+          <t>2022 Semana 20</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.97</v>
+        <v>1.28</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1.03</v>
+        <v>1.41</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.98</v>
+        <v>1.3</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 12</t>
+          <t>2022 Semana 17</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.96</v>
+        <v>1.06</v>
       </c>
       <c r="C18" s="2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D18" s="2" t="n">
         <v>1.04</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>0.96</v>
-      </c>
       <c r="E18" s="2" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 11</t>
+          <t>2022 Semana 16</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.87</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 10</t>
+          <t>2022 Semana 15</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.0</v>
+        <v>1.06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.86</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 09</t>
+          <t>2022 Semana 14</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>0.99</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>1.0</v>
-      </c>
       <c r="E21" s="2" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 08</t>
+          <t>2022 Semana 13</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.03</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0.87</v>
@@ -9708,36 +9822,36 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 07</t>
+          <t>2022 Semana 12</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 06</t>
+          <t>2022 Semana 11</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.0</v>
+        <v>0.97</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0.87</v>
@@ -9746,55 +9860,55 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 05</t>
+          <t>2022 Semana 10</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.02</v>
+        <v>1.0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 04</t>
+          <t>2022 Semana 09</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.02</v>
+        <v>1.0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 03</t>
+          <t>2022 Semana 08</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.0</v>
+        <v>1.01</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0.87</v>
@@ -9803,929 +9917,929 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 02</t>
+          <t>2022 Semana 07</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="C28" s="2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>0.99</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>0.97</v>
-      </c>
       <c r="E28" s="2" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2022 Semana 01</t>
+          <t>2022 Semana 06</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.95</v>
+        <v>1.0</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 52</t>
+          <t>2022 Semana 05</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 51</t>
+          <t>2022 Semana 04</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.85</v>
+        <v>1.02</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 50</t>
+          <t>2022 Semana 03</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.84</v>
+        <v>1.0</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 49</t>
+          <t>2022 Semana 02</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 48</t>
+          <t>2022 Semana 01</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.81</v>
+        <v>0.95</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 47</t>
+          <t>2021 Semana 52</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.81</v>
+        <v>0.87</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>0.87</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 46</t>
+          <t>2021 Semana 51</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 45</t>
+          <t>2021 Semana 50</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 44</t>
+          <t>2021 Semana 49</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 43</t>
+          <t>2021 Semana 48</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D39" s="2" t="n">
         <v>0.84</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>0.86</v>
-      </c>
       <c r="E39" s="2" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 42</t>
+          <t>2021 Semana 47</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
         <v>0.83</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.91</v>
+        <v>0.81</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 41</t>
+          <t>2021 Semana 46</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.88</v>
+        <v>0.81</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 40</t>
+          <t>2021 Semana 45</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.61</v>
+        <v>0.87</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.52</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 39</t>
+          <t>2021 Semana 44</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.57</v>
+        <v>0.9</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.49</v>
+        <v>0.89</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 38</t>
+          <t>2021 Semana 43</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.46</v>
+        <v>0.84</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.52</v>
+        <v>0.9</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 37</t>
+          <t>2021 Semana 42</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.45</v>
+        <v>0.83</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.46</v>
+        <v>0.91</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>0.41</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 36</t>
+          <t>2021 Semana 41</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.46</v>
+        <v>0.88</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>0.42</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 35</t>
+          <t>2021 Semana 40</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.46</v>
+        <v>0.81</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.47</v>
+        <v>0.58</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 34</t>
+          <t>2021 Semana 39</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 33</t>
+          <t>2021 Semana 38</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 32</t>
+          <t>2021 Semana 37</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.68</v>
+        <v>0.46</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>0.79</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 31</t>
+          <t>2021 Semana 36</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.75</v>
+        <v>0.42</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.73</v>
+        <v>0.46</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.73</v>
+        <v>0.39</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>0.78</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 30</t>
+          <t>2021 Semana 35</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.84</v>
+        <v>0.46</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.73</v>
+        <v>0.47</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>0.81</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 29</t>
+          <t>2021 Semana 34</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.73</v>
+        <v>0.51</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>0.81</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 28</t>
+          <t>2021 Semana 33</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.81</v>
+        <v>0.59</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 27</t>
+          <t>2021 Semana 32</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 26</t>
+          <t>2021 Semana 31</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.69</v>
+        <v>0.75</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>0.73</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 25</t>
+          <t>2021 Semana 30</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.56</v>
+        <v>0.73</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>0.65</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 24</t>
+          <t>2021 Semana 29</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0.56</v>
+        <v>0.73</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>0.64</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 23</t>
+          <t>2021 Semana 28</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.6</v>
+        <v>0.81</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 22</t>
+          <t>2021 Semana 27</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.55</v>
+        <v>0.78</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>0.56</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 21</t>
+          <t>2021 Semana 26</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.5</v>
+        <v>0.69</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.52</v>
+        <v>0.73</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 20</t>
+          <t>2021 Semana 25</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.42</v>
+        <v>0.56</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 19</t>
+          <t>2021 Semana 24</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.42</v>
+        <v>0.56</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 18</t>
+          <t>2021 Semana 23</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 17</t>
+          <t>2021 Semana 22</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 16</t>
+          <t>2021 Semana 21</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 15</t>
+          <t>2021 Semana 20</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 14</t>
+          <t>2021 Semana 19</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 13</t>
+          <t>2021 Semana 18</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 12</t>
+          <t>2021 Semana 17</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>0.49</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 11</t>
+          <t>2021 Semana 16</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 10</t>
+          <t>2021 Semana 15</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.46</v>
+        <v>0.56</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 09</t>
+          <t>2021 Semana 14</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.41</v>
+        <v>0.54</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 08</t>
+          <t>2021 Semana 13</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.42</v>
+        <v>0.58</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 07</t>
+          <t>2021 Semana 12</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 06</t>
+          <t>2021 Semana 11</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
         <v>0.48</v>
       </c>
       <c r="C76" s="2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D76" s="2" t="n">
         <v>0.43</v>
-      </c>
-      <c r="D76" s="2" t="n">
-        <v>0.45</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>0.53</v>
@@ -10734,701 +10848,701 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 05</t>
+          <t>2021 Semana 10</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="D77" s="2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E77" s="2" t="n">
         <v>0.5</v>
-      </c>
-      <c r="E77" s="2" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 04</t>
+          <t>2021 Semana 09</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>0.59</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 03</t>
+          <t>2021 Semana 08</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 02</t>
+          <t>2021 Semana 07</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2021 Semana 01</t>
+          <t>2021 Semana 06</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 53</t>
+          <t>2021 Semana 05</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 52</t>
+          <t>2021 Semana 04</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>0.33</v>
+        <v>0.48</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 51</t>
+          <t>2021 Semana 03</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 50</t>
+          <t>2021 Semana 02</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 49</t>
+          <t>2021 Semana 01</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 48</t>
+          <t>2020 Semana 53</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E87" s="2" t="n">
         <v>0.48</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="E87" s="2" t="n">
-        <v>0.54</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 47</t>
+          <t>2020 Semana 52</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 46</t>
+          <t>2020 Semana 51</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>0.76</v>
+        <v>0.4</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0.77</v>
+        <v>0.38</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 45</t>
+          <t>2020 Semana 50</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>0.88</v>
+        <v>0.41</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>0.73</v>
+        <v>0.35</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0.9</v>
+        <v>0.39</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>0.94</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 44</t>
+          <t>2020 Semana 49</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>1.02</v>
+        <v>0.42</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0.99</v>
+        <v>0.42</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>1.06</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 43</t>
+          <t>2020 Semana 48</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>1.03</v>
+        <v>0.48</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>1.05</v>
+        <v>0.43</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0.99</v>
+        <v>0.44</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>1.06</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 42</t>
+          <t>2020 Semana 47</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>1.03</v>
+        <v>0.6</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>1.05</v>
+        <v>0.48</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0.98</v>
+        <v>0.59</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>1.05</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 41</t>
+          <t>2020 Semana 46</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>1.03</v>
+        <v>0.76</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>1.04</v>
+        <v>0.6</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0.99</v>
+        <v>0.77</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>1.05</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 40</t>
+          <t>2020 Semana 45</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>1.0</v>
+        <v>0.88</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>1.04</v>
+        <v>0.73</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>1.01</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 39</t>
+          <t>2020 Semana 44</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>0.93</v>
+        <v>1.02</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 38</t>
+          <t>2020 Semana 43</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>0.84</v>
+        <v>1.03</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 37</t>
+          <t>2020 Semana 42</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>0.79</v>
+        <v>1.03</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>0.83</v>
+        <v>1.05</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 36</t>
+          <t>2020 Semana 41</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>0.71</v>
+        <v>1.03</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>0.77</v>
+        <v>1.04</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>0.71</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 35</t>
+          <t>2020 Semana 40</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>0.65</v>
+        <v>1.0</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>0.69</v>
+        <v>1.04</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>0.66</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 34</t>
+          <t>2020 Semana 39</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>0.66</v>
+        <v>0.93</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>0.69</v>
+        <v>0.95</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 33</t>
+          <t>2020 Semana 38</t>
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>0.65</v>
+        <v>0.84</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>0.68</v>
+        <v>0.88</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>0.66</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 32</t>
+          <t>2020 Semana 37</t>
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 31</t>
+          <t>2020 Semana 36</t>
         </is>
       </c>
       <c r="B104" s="2" t="n">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 30</t>
+          <t>2020 Semana 35</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 29</t>
+          <t>2020 Semana 34</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>0.59</v>
+        <v>0.66</v>
       </c>
       <c r="C106" s="2" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="D106" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="D106" s="2" t="n">
-        <v>0.52</v>
-      </c>
       <c r="E106" s="2" t="n">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 28</t>
+          <t>2020 Semana 33</t>
         </is>
       </c>
       <c r="B107" s="2" t="n">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>0.55</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 27</t>
+          <t>2020 Semana 32</t>
         </is>
       </c>
       <c r="B108" s="2" t="n">
-        <v>0.47</v>
+        <v>0.65</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>0.53</v>
+        <v>0.68</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 26</t>
+          <t>2020 Semana 31</t>
         </is>
       </c>
       <c r="B109" s="2" t="n">
-        <v>0.43</v>
+        <v>0.63</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>0.37</v>
+        <v>0.58</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 25</t>
+          <t>2020 Semana 30</t>
         </is>
       </c>
       <c r="B110" s="2" t="n">
-        <v>0.43</v>
+        <v>0.63</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>0.37</v>
+        <v>0.58</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>0.46</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 24</t>
+          <t>2020 Semana 29</t>
         </is>
       </c>
       <c r="B111" s="2" t="n">
-        <v>0.42</v>
+        <v>0.59</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 23</t>
+          <t>2020 Semana 28</t>
         </is>
       </c>
       <c r="B112" s="2" t="n">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>0.39</v>
+        <v>0.57</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>0.38</v>
+        <v>0.47</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 22</t>
+          <t>2020 Semana 27</t>
         </is>
       </c>
       <c r="B113" s="2" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>0.47</v>
@@ -11437,52 +11551,52 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 21</t>
+          <t>2020 Semana 26</t>
         </is>
       </c>
       <c r="B114" s="2" t="n">
         <v>0.43</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>0.37</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 20</t>
+          <t>2020 Semana 25</t>
         </is>
       </c>
       <c r="B115" s="2" t="n">
         <v>0.43</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 19</t>
+          <t>2020 Semana 24</t>
         </is>
       </c>
       <c r="B116" s="2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="D116" s="2" t="n">
         <v>0.37</v>
@@ -11494,235 +11608,235 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 18</t>
+          <t>2020 Semana 23</t>
         </is>
       </c>
       <c r="B117" s="2" t="n">
         <v>0.44</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="D117" s="2" t="n">
         <v>0.38</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 17</t>
+          <t>2020 Semana 22</t>
         </is>
       </c>
       <c r="B118" s="2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="C118" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E118" s="2" t="n">
         <v>0.47</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="E118" s="2" t="n">
-        <v>0.46</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 16</t>
+          <t>2020 Semana 21</t>
         </is>
       </c>
       <c r="B119" s="2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 15</t>
+          <t>2020 Semana 20</t>
         </is>
       </c>
       <c r="B120" s="2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 14</t>
+          <t>2020 Semana 19</t>
         </is>
       </c>
       <c r="B121" s="2" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>0.43</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 13</t>
+          <t>2020 Semana 18</t>
         </is>
       </c>
       <c r="B122" s="2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D122" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="C122" s="2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0.33</v>
-      </c>
       <c r="E122" s="2" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 12</t>
+          <t>2020 Semana 17</t>
         </is>
       </c>
       <c r="B123" s="2" t="n">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
       <c r="C123" s="2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D123" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>0.33</v>
-      </c>
       <c r="E123" s="2" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 11</t>
+          <t>2020 Semana 16</t>
         </is>
       </c>
       <c r="B124" s="2" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 10</t>
+          <t>2020 Semana 15</t>
         </is>
       </c>
       <c r="B125" s="2" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 09</t>
+          <t>2020 Semana 14</t>
         </is>
       </c>
       <c r="B126" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D126" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="C126" s="2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0.3</v>
-      </c>
       <c r="E126" s="2" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 08</t>
+          <t>2020 Semana 13</t>
         </is>
       </c>
       <c r="B127" s="2" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="C127" s="2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E127" s="2" t="n">
         <v>0.4</v>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="E127" s="2" t="n">
-        <v>0.36</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 07</t>
+          <t>2020 Semana 12</t>
         </is>
       </c>
       <c r="B128" s="2" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 06</t>
+          <t>2020 Semana 11</t>
         </is>
       </c>
       <c r="B129" s="2" t="n">
@@ -11732,26 +11846,26 @@
         <v>0.39</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 05</t>
+          <t>2020 Semana 10</t>
         </is>
       </c>
       <c r="B130" s="2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E130" s="2" t="n">
         <v>0.38</v>
@@ -11760,283 +11874,283 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 04</t>
+          <t>2020 Semana 09</t>
         </is>
       </c>
       <c r="B131" s="2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 03</t>
+          <t>2020 Semana 08</t>
         </is>
       </c>
       <c r="B132" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C132" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="C132" s="2" t="n">
-        <v>0.39</v>
-      </c>
       <c r="D132" s="2" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 02</t>
+          <t>2020 Semana 07</t>
         </is>
       </c>
       <c r="B133" s="2" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2020 Semana 01</t>
+          <t>2020 Semana 06</t>
         </is>
       </c>
       <c r="B134" s="2" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>0.53</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 52</t>
+          <t>2020 Semana 05</t>
         </is>
       </c>
       <c r="B135" s="2" t="n">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 51</t>
+          <t>2020 Semana 04</t>
         </is>
       </c>
       <c r="B136" s="2" t="n">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>0.55</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 50</t>
+          <t>2020 Semana 03</t>
         </is>
       </c>
       <c r="B137" s="2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>0.59</v>
+        <v>0.39</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>0.66</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 49</t>
+          <t>2020 Semana 02</t>
         </is>
       </c>
       <c r="B138" s="2" t="n">
-        <v>0.72</v>
+        <v>0.44</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>0.56</v>
+        <v>0.42</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>0.73</v>
+        <v>0.42</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>0.8</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 48</t>
+          <t>2020 Semana 01</t>
         </is>
       </c>
       <c r="B139" s="2" t="n">
-        <v>0.91</v>
+        <v>0.49</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>0.9</v>
+        <v>0.47</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>0.98</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 47</t>
+          <t>2019 Semana 52</t>
         </is>
       </c>
       <c r="B140" s="2" t="n">
-        <v>1.05</v>
+        <v>0.52</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>1.05</v>
+        <v>0.49</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>1.13</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 46</t>
+          <t>2019 Semana 51</t>
         </is>
       </c>
       <c r="B141" s="2" t="n">
-        <v>1.08</v>
+        <v>0.52</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>1.06</v>
+        <v>0.49</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>1.14</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 45</t>
+          <t>2019 Semana 50</t>
         </is>
       </c>
       <c r="B142" s="2" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>1.08</v>
+        <v>0.51</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>1.07</v>
+        <v>0.59</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>1.14</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 44</t>
+          <t>2019 Semana 49</t>
         </is>
       </c>
       <c r="B143" s="2" t="n">
-        <v>1.14</v>
+        <v>0.72</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>1.15</v>
+        <v>0.56</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>1.08</v>
+        <v>0.73</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 43</t>
+          <t>2019 Semana 48</t>
         </is>
       </c>
       <c r="B144" s="2" t="n">
-        <v>1.13</v>
+        <v>0.91</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>1.14</v>
+        <v>0.79</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>1.07</v>
+        <v>0.9</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 42</t>
+          <t>2019 Semana 47</t>
         </is>
       </c>
       <c r="B145" s="2" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>1.14</v>
+        <v>0.89</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E145" s="2" t="n">
         <v>1.13</v>
@@ -12045,264 +12159,264 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 41</t>
+          <t>2019 Semana 46</t>
         </is>
       </c>
       <c r="B146" s="2" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 40</t>
+          <t>2019 Semana 45</t>
         </is>
       </c>
       <c r="B147" s="2" t="n">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>0.91</v>
+        <v>1.07</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 39</t>
+          <t>2019 Semana 44</t>
         </is>
       </c>
       <c r="B148" s="2" t="n">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>0.84</v>
+        <v>1.15</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>0.91</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 38</t>
+          <t>2019 Semana 43</t>
         </is>
       </c>
       <c r="B149" s="2" t="n">
-        <v>0.78</v>
+        <v>1.13</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>0.78</v>
+        <v>1.14</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>0.74</v>
+        <v>1.07</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>0.81</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 37</t>
+          <t>2019 Semana 42</t>
         </is>
       </c>
       <c r="B150" s="2" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>0.74</v>
+        <v>1.14</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>0.65</v>
+        <v>1.03</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>0.7</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 36</t>
+          <t>2019 Semana 41</t>
         </is>
       </c>
       <c r="B151" s="2" t="n">
-        <v>0.56</v>
+        <v>1.05</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>0.63</v>
+        <v>1.08</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>0.55</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 35</t>
+          <t>2019 Semana 40</t>
         </is>
       </c>
       <c r="B152" s="2" t="n">
-        <v>0.41</v>
+        <v>0.99</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>0.4</v>
+        <v>1.04</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>0.39</v>
+        <v>0.91</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>0.42</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 34</t>
+          <t>2019 Semana 39</t>
         </is>
       </c>
       <c r="B153" s="2" t="n">
-        <v>0.36</v>
+        <v>0.87</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>0.34</v>
+        <v>0.83</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>0.36</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 33</t>
+          <t>2019 Semana 38</t>
         </is>
       </c>
       <c r="B154" s="2" t="n">
-        <v>0.34</v>
+        <v>0.78</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>0.36</v>
+        <v>0.78</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>0.31</v>
+        <v>0.74</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>0.34</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 32</t>
+          <t>2019 Semana 37</t>
         </is>
       </c>
       <c r="B155" s="2" t="n">
-        <v>0.33</v>
+        <v>0.7</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>0.35</v>
+        <v>0.74</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>0.33</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 31</t>
+          <t>2019 Semana 36</t>
         </is>
       </c>
       <c r="B156" s="2" t="n">
-        <v>0.33</v>
+        <v>0.56</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>0.36</v>
+        <v>0.63</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>0.34</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 30</t>
+          <t>2019 Semana 35</t>
         </is>
       </c>
       <c r="B157" s="2" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 29</t>
+          <t>2019 Semana 34</t>
         </is>
       </c>
       <c r="B158" s="2" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 28</t>
+          <t>2019 Semana 33</t>
         </is>
       </c>
       <c r="B159" s="2" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="E159" s="2" t="n">
         <v>0.34</v>
@@ -12311,239 +12425,239 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 27</t>
+          <t>2019 Semana 32</t>
         </is>
       </c>
       <c r="B160" s="2" t="n">
         <v>0.33</v>
       </c>
       <c r="C160" s="2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E160" s="2" t="n">
         <v>0.33</v>
-      </c>
-      <c r="D160" s="2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E160" s="2" t="n">
-        <v>0.34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 26</t>
+          <t>2019 Semana 31</t>
         </is>
       </c>
       <c r="B161" s="2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 25</t>
+          <t>2019 Semana 30</t>
         </is>
       </c>
       <c r="B162" s="2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 24</t>
+          <t>2019 Semana 29</t>
         </is>
       </c>
       <c r="B163" s="2" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 23</t>
+          <t>2019 Semana 28</t>
         </is>
       </c>
       <c r="B164" s="2" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 22</t>
+          <t>2019 Semana 27</t>
         </is>
       </c>
       <c r="B165" s="2" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="D165" s="2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E165" s="2" t="n">
         <v>0.34</v>
-      </c>
-      <c r="E165" s="2" t="n">
-        <v>0.39</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 21</t>
+          <t>2019 Semana 26</t>
         </is>
       </c>
       <c r="B166" s="2" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 20</t>
+          <t>2019 Semana 25</t>
         </is>
       </c>
       <c r="B167" s="2" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="D167" s="2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E167" s="2" t="n">
         <v>0.37</v>
-      </c>
-      <c r="E167" s="2" t="n">
-        <v>0.41</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 19</t>
+          <t>2019 Semana 24</t>
         </is>
       </c>
       <c r="B168" s="2" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="C168" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E168" s="2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="D168" s="2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E168" s="2" t="n">
-        <v>0.42</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 18</t>
+          <t>2019 Semana 23</t>
         </is>
       </c>
       <c r="B169" s="2" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="C169" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E169" s="2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="D169" s="2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E169" s="2" t="n">
-        <v>0.42</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 17</t>
+          <t>2019 Semana 22</t>
         </is>
       </c>
       <c r="B170" s="2" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 16</t>
+          <t>2019 Semana 21</t>
         </is>
       </c>
       <c r="B171" s="2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="C171" s="2" t="n">
         <v>0.38</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 15</t>
+          <t>2019 Semana 20</t>
         </is>
       </c>
       <c r="B172" s="2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="C172" s="2" t="n">
         <v>0.38</v>
@@ -12552,647 +12666,647 @@
         <v>0.37</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 14</t>
+          <t>2019 Semana 19</t>
         </is>
       </c>
       <c r="B173" s="2" t="n">
         <v>0.4</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D173" s="2" t="n">
         <v>0.38</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 13</t>
+          <t>2019 Semana 18</t>
         </is>
       </c>
       <c r="B174" s="2" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 12</t>
+          <t>2019 Semana 17</t>
         </is>
       </c>
       <c r="B175" s="2" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="C175" s="2" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 11</t>
+          <t>2019 Semana 16</t>
         </is>
       </c>
       <c r="B176" s="2" t="n">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 10</t>
+          <t>2019 Semana 15</t>
         </is>
       </c>
       <c r="B177" s="2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 09</t>
+          <t>2019 Semana 14</t>
         </is>
       </c>
       <c r="B178" s="2" t="n">
-        <v>0.74</v>
+        <v>0.4</v>
       </c>
       <c r="C178" s="2" t="n">
-        <v>0.77</v>
+        <v>0.39</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>0.69</v>
+        <v>0.38</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>0.76</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 08</t>
+          <t>2019 Semana 13</t>
         </is>
       </c>
       <c r="B179" s="2" t="n">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="C179" s="2" t="n">
-        <v>0.77</v>
+        <v>0.45</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>0.81</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 07</t>
+          <t>2019 Semana 12</t>
         </is>
       </c>
       <c r="B180" s="2" t="n">
-        <v>0.77</v>
+        <v>0.47</v>
       </c>
       <c r="C180" s="2" t="n">
-        <v>0.77</v>
+        <v>0.46</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>0.72</v>
+        <v>0.44</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>0.81</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 06</t>
+          <t>2019 Semana 11</t>
         </is>
       </c>
       <c r="B181" s="2" t="n">
-        <v>0.77</v>
+        <v>0.53</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>0.77</v>
+        <v>0.47</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>0.72</v>
+        <v>0.5</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>0.82</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 05</t>
+          <t>2019 Semana 10</t>
         </is>
       </c>
       <c r="B182" s="2" t="n">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="C182" s="2" t="n">
-        <v>0.77</v>
+        <v>0.52</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 04</t>
+          <t>2019 Semana 09</t>
         </is>
       </c>
       <c r="B183" s="2" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="C183" s="2" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 03</t>
+          <t>2019 Semana 08</t>
         </is>
       </c>
       <c r="B184" s="2" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="C184" s="2" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 02</t>
+          <t>2019 Semana 07</t>
         </is>
       </c>
       <c r="B185" s="2" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="C185" s="2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E185" s="2" t="n">
         <v>0.81</v>
-      </c>
-      <c r="D185" s="2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E185" s="2" t="n">
-        <v>0.82</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2019 Semana 01</t>
+          <t>2019 Semana 06</t>
         </is>
       </c>
       <c r="B186" s="2" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="C186" s="2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E186" s="2" t="n">
         <v>0.82</v>
-      </c>
-      <c r="D186" s="2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E186" s="2" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 52</t>
+          <t>2019 Semana 05</t>
         </is>
       </c>
       <c r="B187" s="2" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="C187" s="2" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="D187" s="2" t="n">
         <v>0.73</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 51</t>
+          <t>2019 Semana 04</t>
         </is>
       </c>
       <c r="B188" s="2" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="C188" s="2" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="D188" s="2" t="n">
         <v>0.73</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 50</t>
+          <t>2019 Semana 03</t>
         </is>
       </c>
       <c r="B189" s="2" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="C189" s="2" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="D189" s="2" t="n">
         <v>0.74</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 49</t>
+          <t>2019 Semana 02</t>
         </is>
       </c>
       <c r="B190" s="2" t="n">
         <v>0.79</v>
       </c>
       <c r="C190" s="2" t="n">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 48</t>
+          <t>2019 Semana 01</t>
         </is>
       </c>
       <c r="B191" s="2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D191" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="C191" s="2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D191" s="2" t="n">
-        <v>0.68</v>
-      </c>
       <c r="E191" s="2" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 47</t>
+          <t>2018 Semana 52</t>
         </is>
       </c>
       <c r="B192" s="2" t="n">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="C192" s="2" t="n">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 46</t>
+          <t>2018 Semana 51</t>
         </is>
       </c>
       <c r="B193" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D193" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="C193" s="2" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="D193" s="2" t="n">
-        <v>0.66</v>
-      </c>
       <c r="E193" s="2" t="n">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 45</t>
+          <t>2018 Semana 50</t>
         </is>
       </c>
       <c r="B194" s="2" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="C194" s="2" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D194" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="D194" s="2" t="n">
-        <v>0.65</v>
-      </c>
       <c r="E194" s="2" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 44</t>
+          <t>2018 Semana 49</t>
         </is>
       </c>
       <c r="B195" s="2" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="C195" s="2" t="n">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 43</t>
+          <t>2018 Semana 48</t>
         </is>
       </c>
       <c r="B196" s="2" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="C196" s="2" t="n">
-        <v>0.69</v>
+        <v>0.8</v>
       </c>
       <c r="D196" s="2" t="n">
         <v>0.68</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 42</t>
+          <t>2018 Semana 47</t>
         </is>
       </c>
       <c r="B197" s="2" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="C197" s="2" t="n">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 41</t>
+          <t>2018 Semana 46</t>
         </is>
       </c>
       <c r="B198" s="2" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="C198" s="2" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 40</t>
+          <t>2018 Semana 45</t>
         </is>
       </c>
       <c r="B199" s="2" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="C199" s="2" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 39</t>
+          <t>2018 Semana 44</t>
         </is>
       </c>
       <c r="B200" s="2" t="n">
-        <v>0.87</v>
+        <v>0.71</v>
       </c>
       <c r="C200" s="2" t="n">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>0.84</v>
+        <v>0.65</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 38</t>
+          <t>2018 Semana 43</t>
         </is>
       </c>
       <c r="B201" s="2" t="n">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="C201" s="2" t="n">
-        <v>0.85</v>
+        <v>0.69</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>0.83</v>
+        <v>0.68</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 37</t>
+          <t>2018 Semana 42</t>
         </is>
       </c>
       <c r="B202" s="2" t="n">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="C202" s="2" t="n">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 36</t>
+          <t>2018 Semana 41</t>
         </is>
       </c>
       <c r="B203" s="2" t="n">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="C203" s="2" t="n">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="D203" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E203" s="2" t="n">
         <v>0.84</v>
-      </c>
-      <c r="E203" s="2" t="n">
-        <v>0.93</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 35</t>
+          <t>2018 Semana 40</t>
         </is>
       </c>
       <c r="B204" s="2" t="n">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="C204" s="2" t="n">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="D204" s="2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E204" s="2" t="n">
         <v>0.85</v>
-      </c>
-      <c r="E204" s="2" t="n">
-        <v>0.93</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 34</t>
+          <t>2018 Semana 39</t>
         </is>
       </c>
       <c r="B205" s="2" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="C205" s="2" t="n">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="D205" s="2" t="n">
         <v>0.84</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 33</t>
+          <t>2018 Semana 38</t>
         </is>
       </c>
       <c r="B206" s="2" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="C206" s="2" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="D206" s="2" t="n">
         <v>0.83</v>
@@ -13204,17 +13318,17 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 32</t>
+          <t>2018 Semana 37</t>
         </is>
       </c>
       <c r="B207" s="2" t="n">
         <v>0.89</v>
       </c>
       <c r="C207" s="2" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E207" s="2" t="n">
         <v>0.92</v>
@@ -13223,7 +13337,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 31</t>
+          <t>2018 Semana 36</t>
         </is>
       </c>
       <c r="B208" s="2" t="n">
@@ -13233,102 +13347,102 @@
         <v>0.9</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 30</t>
+          <t>2018 Semana 35</t>
         </is>
       </c>
       <c r="B209" s="2" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="C209" s="2" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 29</t>
+          <t>2018 Semana 34</t>
         </is>
       </c>
       <c r="B210" s="2" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="C210" s="2" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="E210" s="2" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 28</t>
+          <t>2018 Semana 33</t>
         </is>
       </c>
       <c r="B211" s="2" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="C211" s="2" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 27</t>
+          <t>2018 Semana 32</t>
         </is>
       </c>
       <c r="B212" s="2" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="C212" s="2" t="n">
-        <v>1.01</v>
+        <v>0.9</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E212" s="2" t="n">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 26</t>
+          <t>2018 Semana 31</t>
         </is>
       </c>
       <c r="B213" s="2" t="n">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="C213" s="2" t="n">
-        <v>1.0</v>
+        <v>0.9</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="E213" s="2" t="n">
         <v>0.92</v>
@@ -13337,55 +13451,55 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 25</t>
+          <t>2018 Semana 30</t>
         </is>
       </c>
       <c r="B214" s="2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E214" s="2" t="n">
         <v>0.92</v>
-      </c>
-      <c r="C214" s="2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D214" s="2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E214" s="2" t="n">
-        <v>0.93</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 24</t>
+          <t>2018 Semana 29</t>
         </is>
       </c>
       <c r="B215" s="2" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="C215" s="2" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 23</t>
+          <t>2018 Semana 28</t>
         </is>
       </c>
       <c r="B216" s="2" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="C216" s="2" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="E216" s="2" t="n">
         <v>0.93</v>
@@ -13394,492 +13508,492 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 22</t>
+          <t>2018 Semana 27</t>
         </is>
       </c>
       <c r="B217" s="2" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="C217" s="2" t="n">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 21</t>
+          <t>2018 Semana 26</t>
         </is>
       </c>
       <c r="B218" s="2" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="C218" s="2" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="E218" s="2" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 20</t>
+          <t>2018 Semana 25</t>
         </is>
       </c>
       <c r="B219" s="2" t="n">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="C219" s="2" t="n">
-        <v>0.87</v>
+        <v>1.01</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="E219" s="2" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 19</t>
+          <t>2018 Semana 24</t>
         </is>
       </c>
       <c r="B220" s="2" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="C220" s="2" t="n">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="D220" s="2" t="n">
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>0.78</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 18</t>
+          <t>2018 Semana 23</t>
         </is>
       </c>
       <c r="B221" s="2" t="n">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="C221" s="2" t="n">
-        <v>0.79</v>
+        <v>1.01</v>
       </c>
       <c r="D221" s="2" t="n">
-        <v>0.69</v>
+        <v>0.84</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 17</t>
+          <t>2018 Semana 22</t>
         </is>
       </c>
       <c r="B222" s="2" t="n">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="C222" s="2" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="E222" s="2" t="n">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 16</t>
+          <t>2018 Semana 21</t>
         </is>
       </c>
       <c r="B223" s="2" t="n">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="C223" s="2" t="n">
-        <v>0.66</v>
+        <v>0.9</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="E223" s="2" t="n">
-        <v>0.68</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 15</t>
+          <t>2018 Semana 20</t>
         </is>
       </c>
       <c r="B224" s="2" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="C224" s="2" t="n">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>0.55</v>
+        <v>0.74</v>
       </c>
       <c r="E224" s="2" t="n">
-        <v>0.63</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 14</t>
+          <t>2018 Semana 19</t>
         </is>
       </c>
       <c r="B225" s="2" t="n">
-        <v>0.57</v>
+        <v>0.77</v>
       </c>
       <c r="C225" s="2" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>0.53</v>
+        <v>0.7</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>0.59</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 13</t>
+          <t>2018 Semana 18</t>
         </is>
       </c>
       <c r="B226" s="2" t="n">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
       <c r="C226" s="2" t="n">
-        <v>0.56</v>
+        <v>0.79</v>
       </c>
       <c r="D226" s="2" t="n">
-        <v>0.48</v>
+        <v>0.69</v>
       </c>
       <c r="E226" s="2" t="n">
-        <v>0.53</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 12</t>
+          <t>2018 Semana 17</t>
         </is>
       </c>
       <c r="B227" s="2" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="C227" s="2" t="n">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>0.53</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 11</t>
+          <t>2018 Semana 16</t>
         </is>
       </c>
       <c r="B228" s="2" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="C228" s="2" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="D228" s="2" t="n">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="E228" s="2" t="n">
-        <v>0.53</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 10</t>
+          <t>2018 Semana 15</t>
         </is>
       </c>
       <c r="B229" s="2" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="C229" s="2" t="n">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="D229" s="2" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 09</t>
+          <t>2018 Semana 14</t>
         </is>
       </c>
       <c r="B230" s="2" t="n">
-        <v>0.52</v>
+        <v>0.57</v>
       </c>
       <c r="C230" s="2" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="E230" s="2" t="n">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 08</t>
+          <t>2018 Semana 13</t>
         </is>
       </c>
       <c r="B231" s="2" t="n">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="C231" s="2" t="n">
-        <v>0.5</v>
+        <v>0.56</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="E231" s="2" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 07</t>
+          <t>2018 Semana 12</t>
         </is>
       </c>
       <c r="B232" s="2" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="C232" s="2" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="D232" s="2" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="E232" s="2" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 06</t>
+          <t>2018 Semana 11</t>
         </is>
       </c>
       <c r="B233" s="2" t="n">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
       <c r="C233" s="2" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="E233" s="2" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 05</t>
+          <t>2018 Semana 10</t>
         </is>
       </c>
       <c r="B234" s="2" t="n">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="C234" s="2" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="E234" s="2" t="n">
-        <v>0.36</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 04</t>
+          <t>2018 Semana 09</t>
         </is>
       </c>
       <c r="B235" s="2" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="C235" s="2" t="n">
-        <v>0.39</v>
+        <v>0.54</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="E235" s="2" t="n">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 03</t>
+          <t>2018 Semana 08</t>
         </is>
       </c>
       <c r="B236" s="2" t="n">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="C236" s="2" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="E236" s="2" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 02</t>
+          <t>2018 Semana 07</t>
         </is>
       </c>
       <c r="B237" s="2" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="C237" s="2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D237" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="D237" s="2" t="n">
-        <v>0.33</v>
-      </c>
       <c r="E237" s="2" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2018 Semana 01</t>
+          <t>2018 Semana 06</t>
         </is>
       </c>
       <c r="B238" s="2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D238" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="C238" s="2" t="n">
+      <c r="E238" s="2" t="n">
         <v>0.39</v>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E238" s="2" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 52</t>
+          <t>2018 Semana 05</t>
         </is>
       </c>
       <c r="B239" s="2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D239" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="C239" s="2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>0.33</v>
-      </c>
       <c r="E239" s="2" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 51</t>
+          <t>2018 Semana 04</t>
         </is>
       </c>
       <c r="B240" s="2" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="C240" s="2" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="D240" s="2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="E240" s="2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 50</t>
+          <t>2018 Semana 03</t>
         </is>
       </c>
       <c r="B241" s="2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="C241" s="2" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="E241" s="2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 49</t>
+          <t>2018 Semana 02</t>
         </is>
       </c>
       <c r="B242" s="2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="C242" s="2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D242" s="2" t="n">
         <v>0.33</v>
-      </c>
-      <c r="D242" s="2" t="n">
-        <v>0.35</v>
       </c>
       <c r="E242" s="2" t="n">
         <v>0.35</v>
@@ -13888,17 +14002,17 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 48</t>
+          <t>2018 Semana 01</t>
         </is>
       </c>
       <c r="B243" s="2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="C243" s="2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="D243" s="2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E243" s="2" t="n">
         <v>0.35</v>
@@ -13907,1347 +14021,1347 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 47</t>
+          <t>2017 Semana 52</t>
         </is>
       </c>
       <c r="B244" s="2" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="C244" s="2" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="E244" s="2" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 46</t>
+          <t>2017 Semana 51</t>
         </is>
       </c>
       <c r="B245" s="2" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="C245" s="2" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="E245" s="2" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 45</t>
+          <t>2017 Semana 50</t>
         </is>
       </c>
       <c r="B246" s="2" t="n">
-        <v>0.52</v>
+        <v>0.34</v>
       </c>
       <c r="C246" s="2" t="n">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="D246" s="2" t="n">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
       <c r="E246" s="2" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 44</t>
+          <t>2017 Semana 49</t>
         </is>
       </c>
       <c r="B247" s="2" t="n">
-        <v>0.64</v>
+        <v>0.34</v>
       </c>
       <c r="C247" s="2" t="n">
-        <v>0.58</v>
+        <v>0.33</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>0.64</v>
+        <v>0.35</v>
       </c>
       <c r="E247" s="2" t="n">
-        <v>0.66</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 43</t>
+          <t>2017 Semana 48</t>
         </is>
       </c>
       <c r="B248" s="2" t="n">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="C248" s="2" t="n">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
       <c r="D248" s="2" t="n">
-        <v>0.71</v>
+        <v>0.34</v>
       </c>
       <c r="E248" s="2" t="n">
-        <v>0.56</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 42</t>
+          <t>2017 Semana 47</t>
         </is>
       </c>
       <c r="B249" s="2" t="n">
-        <v>0.65</v>
+        <v>0.39</v>
       </c>
       <c r="C249" s="2" t="n">
-        <v>0.77</v>
+        <v>0.4</v>
       </c>
       <c r="D249" s="2" t="n">
-        <v>0.71</v>
+        <v>0.37</v>
       </c>
       <c r="E249" s="2" t="n">
-        <v>0.57</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 41</t>
+          <t>2017 Semana 46</t>
         </is>
       </c>
       <c r="B250" s="2" t="n">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
       <c r="C250" s="2" t="n">
-        <v>0.77</v>
+        <v>0.43</v>
       </c>
       <c r="D250" s="2" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="E250" s="2" t="n">
-        <v>0.56</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 40</t>
+          <t>2017 Semana 45</t>
         </is>
       </c>
       <c r="B251" s="2" t="n">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="C251" s="2" t="n">
-        <v>0.76</v>
+        <v>0.48</v>
       </c>
       <c r="D251" s="2" t="n">
-        <v>0.68</v>
+        <v>0.53</v>
       </c>
       <c r="E251" s="2" t="n">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 39</t>
+          <t>2017 Semana 44</t>
         </is>
       </c>
       <c r="B252" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C252" s="2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E252" s="2" t="n">
         <v>0.66</v>
-      </c>
-      <c r="C252" s="2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D252" s="2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E252" s="2" t="n">
-        <v>0.67</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 38</t>
+          <t>2017 Semana 43</t>
         </is>
       </c>
       <c r="B253" s="2" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="C253" s="2" t="n">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="D253" s="2" t="n">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="E253" s="2" t="n">
-        <v>0.57</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 37</t>
+          <t>2017 Semana 42</t>
         </is>
       </c>
       <c r="B254" s="2" t="n">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="C254" s="2" t="n">
-        <v>0.53</v>
+        <v>0.77</v>
       </c>
       <c r="D254" s="2" t="n">
-        <v>0.44</v>
+        <v>0.71</v>
       </c>
       <c r="E254" s="2" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 36</t>
+          <t>2017 Semana 41</t>
         </is>
       </c>
       <c r="B255" s="2" t="n">
-        <v>0.39</v>
+        <v>0.64</v>
       </c>
       <c r="C255" s="2" t="n">
-        <v>0.47</v>
+        <v>0.77</v>
       </c>
       <c r="D255" s="2" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="E255" s="2" t="n">
-        <v>0.38</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 35</t>
+          <t>2017 Semana 40</t>
         </is>
       </c>
       <c r="B256" s="2" t="n">
-        <v>0.37</v>
+        <v>0.71</v>
       </c>
       <c r="C256" s="2" t="n">
-        <v>0.42</v>
+        <v>0.76</v>
       </c>
       <c r="D256" s="2" t="n">
-        <v>0.36</v>
+        <v>0.68</v>
       </c>
       <c r="E256" s="2" t="n">
-        <v>0.35</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 34</t>
+          <t>2017 Semana 39</t>
         </is>
       </c>
       <c r="B257" s="2" t="n">
-        <v>0.37</v>
+        <v>0.66</v>
       </c>
       <c r="C257" s="2" t="n">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="D257" s="2" t="n">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="E257" s="2" t="n">
-        <v>0.36</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 33</t>
+          <t>2017 Semana 38</t>
         </is>
       </c>
       <c r="B258" s="2" t="n">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
       <c r="C258" s="2" t="n">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="D258" s="2" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="E258" s="2" t="n">
-        <v>0.35</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 32</t>
+          <t>2017 Semana 37</t>
         </is>
       </c>
       <c r="B259" s="2" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="C259" s="2" t="n">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
       <c r="D259" s="2" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="E259" s="2" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 31</t>
+          <t>2017 Semana 36</t>
         </is>
       </c>
       <c r="B260" s="2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C260" s="2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D260" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="C260" s="2" t="n">
+      <c r="E260" s="2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="D260" s="2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E260" s="2" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 30</t>
+          <t>2017 Semana 35</t>
         </is>
       </c>
       <c r="B261" s="2" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="C261" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D261" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>0.3</v>
-      </c>
       <c r="E261" s="2" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 29</t>
+          <t>2017 Semana 34</t>
         </is>
       </c>
       <c r="B262" s="2" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="C262" s="2" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="D262" s="2" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="E262" s="2" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 28</t>
+          <t>2017 Semana 33</t>
         </is>
       </c>
       <c r="B263" s="2" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="C263" s="2" t="n">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="D263" s="2" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="E263" s="2" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 27</t>
+          <t>2017 Semana 32</t>
         </is>
       </c>
       <c r="B264" s="2" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="C264" s="2" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="D264" s="2" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="E264" s="2" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 26</t>
+          <t>2017 Semana 31</t>
         </is>
       </c>
       <c r="B265" s="2" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="C265" s="2" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="D265" s="2" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="E265" s="2" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 25</t>
+          <t>2017 Semana 30</t>
         </is>
       </c>
       <c r="B266" s="2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="C266" s="2" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="D266" s="2" t="n">
         <v>0.3</v>
       </c>
       <c r="E266" s="2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 24</t>
+          <t>2017 Semana 29</t>
         </is>
       </c>
       <c r="B267" s="2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="C267" s="2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="D267" s="2" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="E267" s="2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 23</t>
+          <t>2017 Semana 28</t>
         </is>
       </c>
       <c r="B268" s="2" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="C268" s="2" t="n">
         <v>0.31</v>
       </c>
       <c r="D268" s="2" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="E268" s="2" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 22</t>
+          <t>2017 Semana 27</t>
         </is>
       </c>
       <c r="B269" s="2" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="C269" s="2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="D269" s="2" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="E269" s="2" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 21</t>
+          <t>2017 Semana 26</t>
         </is>
       </c>
       <c r="B270" s="2" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="C270" s="2" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="D270" s="2" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="E270" s="2" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 20</t>
+          <t>2017 Semana 25</t>
         </is>
       </c>
       <c r="B271" s="2" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="C271" s="2" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="D271" s="2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="E271" s="2" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 19</t>
+          <t>2017 Semana 24</t>
         </is>
       </c>
       <c r="B272" s="2" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="C272" s="2" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="D272" s="2" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="E272" s="2" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 18</t>
+          <t>2017 Semana 23</t>
         </is>
       </c>
       <c r="B273" s="2" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="C273" s="2" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="D273" s="2" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="E273" s="2" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 17</t>
+          <t>2017 Semana 22</t>
         </is>
       </c>
       <c r="B274" s="2" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="C274" s="2" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="D274" s="2" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="E274" s="2" t="n">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 16</t>
+          <t>2017 Semana 21</t>
         </is>
       </c>
       <c r="B275" s="2" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="C275" s="2" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="D275" s="2" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="E275" s="2" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 15</t>
+          <t>2017 Semana 20</t>
         </is>
       </c>
       <c r="B276" s="2" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="C276" s="2" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="D276" s="2" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="E276" s="2" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 14</t>
+          <t>2017 Semana 19</t>
         </is>
       </c>
       <c r="B277" s="2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="C277" s="2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="D277" s="2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E277" s="2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="E277" s="2" t="n">
-        <v>0.42</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 13</t>
+          <t>2017 Semana 18</t>
         </is>
       </c>
       <c r="B278" s="2" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="C278" s="2" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="D278" s="2" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="E278" s="2" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 12</t>
+          <t>2017 Semana 17</t>
         </is>
       </c>
       <c r="B279" s="2" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="C279" s="2" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="D279" s="2" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="E279" s="2" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 11</t>
+          <t>2017 Semana 16</t>
         </is>
       </c>
       <c r="B280" s="2" t="n">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="C280" s="2" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="D280" s="2" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="E280" s="2" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 10</t>
+          <t>2017 Semana 15</t>
         </is>
       </c>
       <c r="B281" s="2" t="n">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="C281" s="2" t="n">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="D281" s="2" t="n">
-        <v>0.56</v>
+        <v>0.41</v>
       </c>
       <c r="E281" s="2" t="n">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 09</t>
+          <t>2017 Semana 14</t>
         </is>
       </c>
       <c r="B282" s="2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C282" s="2" t="n">
-        <v>0.58</v>
+        <v>0.4</v>
       </c>
       <c r="D282" s="2" t="n">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="E282" s="2" t="n">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 08</t>
+          <t>2017 Semana 13</t>
         </is>
       </c>
       <c r="B283" s="2" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="C283" s="2" t="n">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
       <c r="D283" s="2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E283" s="2" t="n">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 07</t>
+          <t>2017 Semana 12</t>
         </is>
       </c>
       <c r="B284" s="2" t="n">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="C284" s="2" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="D284" s="2" t="n">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
       <c r="E284" s="2" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 06</t>
+          <t>2017 Semana 11</t>
         </is>
       </c>
       <c r="B285" s="2" t="n">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="C285" s="2" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="D285" s="2" t="n">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="E285" s="2" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 05</t>
+          <t>2017 Semana 10</t>
         </is>
       </c>
       <c r="B286" s="2" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="C286" s="2" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="D286" s="2" t="n">
-        <v>0.61</v>
+        <v>0.56</v>
       </c>
       <c r="E286" s="2" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 04</t>
+          <t>2017 Semana 09</t>
         </is>
       </c>
       <c r="B287" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C287" s="2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E287" s="2" t="n">
         <v>0.62</v>
-      </c>
-      <c r="C287" s="2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D287" s="2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E287" s="2" t="n">
-        <v>0.64</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 03</t>
+          <t>2017 Semana 08</t>
         </is>
       </c>
       <c r="B288" s="2" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="C288" s="2" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="D288" s="2" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="E288" s="2" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 02</t>
+          <t>2017 Semana 07</t>
         </is>
       </c>
       <c r="B289" s="2" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="C289" s="2" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="D289" s="2" t="n">
         <v>0.6</v>
       </c>
       <c r="E289" s="2" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>2017 Semana 01</t>
+          <t>2017 Semana 06</t>
         </is>
       </c>
       <c r="B290" s="2" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="C290" s="2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D290" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="D290" s="2" t="n">
-        <v>0.57</v>
-      </c>
       <c r="E290" s="2" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 52</t>
+          <t>2017 Semana 05</t>
         </is>
       </c>
       <c r="B291" s="2" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="C291" s="2" t="n">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
       <c r="D291" s="2" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="E291" s="2" t="n">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 51</t>
+          <t>2017 Semana 04</t>
         </is>
       </c>
       <c r="B292" s="2" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="C292" s="2" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="D292" s="2" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="E292" s="2" t="n">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 50</t>
+          <t>2017 Semana 03</t>
         </is>
       </c>
       <c r="B293" s="2" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="C293" s="2" t="n">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="D293" s="2" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="E293" s="2" t="n">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 49</t>
+          <t>2017 Semana 02</t>
         </is>
       </c>
       <c r="B294" s="2" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="C294" s="2" t="n">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="D294" s="2" t="n">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="E294" s="2" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 48</t>
+          <t>2017 Semana 01</t>
         </is>
       </c>
       <c r="B295" s="2" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="C295" s="2" t="n">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="D295" s="2" t="n">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
       <c r="E295" s="2" t="n">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 47</t>
+          <t>2016 Semana 52</t>
         </is>
       </c>
       <c r="B296" s="2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="C296" s="2" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="D296" s="2" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="E296" s="2" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 46</t>
+          <t>2016 Semana 51</t>
         </is>
       </c>
       <c r="B297" s="2" t="n">
-        <v>0.56</v>
+        <v>0.48</v>
       </c>
       <c r="C297" s="2" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="D297" s="2" t="n">
-        <v>0.56</v>
+        <v>0.46</v>
       </c>
       <c r="E297" s="2" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 45</t>
+          <t>2016 Semana 50</t>
         </is>
       </c>
       <c r="B298" s="2" t="n">
-        <v>0.56</v>
+        <v>0.47</v>
       </c>
       <c r="C298" s="2" t="n">
-        <v>0.56</v>
+        <v>0.49</v>
       </c>
       <c r="D298" s="2" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="E298" s="2" t="n">
-        <v>0.56</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 44</t>
+          <t>2016 Semana 49</t>
         </is>
       </c>
       <c r="B299" s="2" t="n">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
       <c r="C299" s="2" t="n">
-        <v>0.56</v>
+        <v>0.49</v>
       </c>
       <c r="D299" s="2" t="n">
-        <v>0.58</v>
+        <v>0.46</v>
       </c>
       <c r="E299" s="2" t="n">
-        <v>0.56</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 43</t>
+          <t>2016 Semana 48</t>
         </is>
       </c>
       <c r="B300" s="2" t="n">
-        <v>0.56</v>
+        <v>0.46</v>
       </c>
       <c r="C300" s="2" t="n">
-        <v>0.56</v>
+        <v>0.47</v>
       </c>
       <c r="D300" s="2" t="n">
-        <v>0.58</v>
+        <v>0.45</v>
       </c>
       <c r="E300" s="2" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 42</t>
+          <t>2016 Semana 47</t>
         </is>
       </c>
       <c r="B301" s="2" t="n">
-        <v>0.56</v>
+        <v>0.52</v>
       </c>
       <c r="C301" s="2" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="D301" s="2" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="E301" s="2" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 41</t>
+          <t>2016 Semana 46</t>
         </is>
       </c>
       <c r="B302" s="2" t="n">
-        <v>0.49</v>
+        <v>0.56</v>
       </c>
       <c r="C302" s="2" t="n">
         <v>0.57</v>
       </c>
       <c r="D302" s="2" t="n">
-        <v>0.48</v>
+        <v>0.56</v>
       </c>
       <c r="E302" s="2" t="n">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 40</t>
+          <t>2016 Semana 45</t>
         </is>
       </c>
       <c r="B303" s="2" t="n">
-        <v>0.41</v>
+        <v>0.56</v>
       </c>
       <c r="C303" s="2" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="D303" s="2" t="n">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
       <c r="E303" s="2" t="n">
-        <v>0.38</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 39</t>
+          <t>2016 Semana 44</t>
         </is>
       </c>
       <c r="B304" s="2" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="C304" s="2" t="n">
-        <v>0.4</v>
+        <v>0.56</v>
       </c>
       <c r="D304" s="2" t="n">
-        <v>0.39</v>
+        <v>0.58</v>
       </c>
       <c r="E304" s="2" t="n">
-        <v>0.36</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 38</t>
+          <t>2016 Semana 43</t>
         </is>
       </c>
       <c r="B305" s="2" t="n">
-        <v>0.38</v>
+        <v>0.56</v>
       </c>
       <c r="C305" s="2" t="n">
-        <v>0.4</v>
+        <v>0.56</v>
       </c>
       <c r="D305" s="2" t="n">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
       <c r="E305" s="2" t="n">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 37</t>
+          <t>2016 Semana 42</t>
         </is>
       </c>
       <c r="B306" s="2" t="n">
-        <v>0.37</v>
+        <v>0.56</v>
       </c>
       <c r="C306" s="2" t="n">
-        <v>0.39</v>
+        <v>0.56</v>
       </c>
       <c r="D306" s="2" t="n">
-        <v>0.37</v>
+        <v>0.57</v>
       </c>
       <c r="E306" s="2" t="n">
-        <v>0.36</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 36</t>
+          <t>2016 Semana 41</t>
         </is>
       </c>
       <c r="B307" s="2" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="C307" s="2" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="D307" s="2" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="E307" s="2" t="n">
-        <v>0.35</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 35</t>
+          <t>2016 Semana 40</t>
         </is>
       </c>
       <c r="B308" s="2" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="C308" s="2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E308" s="2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="D308" s="2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="E308" s="2" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 34</t>
+          <t>2016 Semana 39</t>
         </is>
       </c>
       <c r="B309" s="2" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="C309" s="2" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D309" s="2" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E309" s="2" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 33</t>
+          <t>2016 Semana 38</t>
         </is>
       </c>
       <c r="B310" s="2" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="C310" s="2" t="n">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
       <c r="D310" s="2" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="E310" s="2" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 32</t>
+          <t>2016 Semana 37</t>
         </is>
       </c>
       <c r="B311" s="2" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="C311" s="2" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="D311" s="2" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="E311" s="2" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 31</t>
+          <t>2016 Semana 36</t>
         </is>
       </c>
       <c r="B312" s="2" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="C312" s="2" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="D312" s="2" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="E312" s="2" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 30</t>
+          <t>2016 Semana 35</t>
         </is>
       </c>
       <c r="B313" s="2" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="C313" s="2" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="D313" s="2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E313" s="2" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 29</t>
+          <t>2016 Semana 34</t>
         </is>
       </c>
       <c r="B314" s="2" t="n">
         <v>0.33</v>
       </c>
       <c r="C314" s="2" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D314" s="2" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E314" s="2" t="n">
         <v>0.33</v>
@@ -15256,36 +15370,36 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 28</t>
+          <t>2016 Semana 33</t>
         </is>
       </c>
       <c r="B315" s="2" t="n">
         <v>0.33</v>
       </c>
       <c r="C315" s="2" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>0.33</v>
       </c>
       <c r="E315" s="2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 27</t>
+          <t>2016 Semana 32</t>
         </is>
       </c>
       <c r="B316" s="2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C316" s="2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D316" s="2" t="n">
         <v>0.33</v>
-      </c>
-      <c r="C316" s="2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D316" s="2" t="n">
-        <v>0.32</v>
       </c>
       <c r="E316" s="2" t="n">
         <v>0.32</v>
@@ -15294,36 +15408,36 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 26</t>
+          <t>2016 Semana 31</t>
         </is>
       </c>
       <c r="B317" s="2" t="n">
         <v>0.33</v>
       </c>
       <c r="C317" s="2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="D317" s="2" t="n">
         <v>0.34</v>
       </c>
       <c r="E317" s="2" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 25</t>
+          <t>2016 Semana 30</t>
         </is>
       </c>
       <c r="B318" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C318" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D318" s="2" t="n">
         <v>0.34</v>
-      </c>
-      <c r="C318" s="2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="D318" s="2" t="n">
-        <v>0.33</v>
       </c>
       <c r="E318" s="2" t="n">
         <v>0.33</v>
@@ -15332,169 +15446,169 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 24</t>
+          <t>2016 Semana 29</t>
         </is>
       </c>
       <c r="B319" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C319" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="C319" s="2" t="n">
-        <v>0.37</v>
-      </c>
       <c r="D319" s="2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="E319" s="2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 23</t>
+          <t>2016 Semana 28</t>
         </is>
       </c>
       <c r="B320" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C320" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="C320" s="2" t="n">
-        <v>0.38</v>
-      </c>
       <c r="D320" s="2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E320" s="2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 22</t>
+          <t>2016 Semana 27</t>
         </is>
       </c>
       <c r="B321" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C321" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="C321" s="2" t="n">
-        <v>0.38</v>
-      </c>
       <c r="D321" s="2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="E321" s="2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 21</t>
+          <t>2016 Semana 26</t>
         </is>
       </c>
       <c r="B322" s="2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="C322" s="2" t="n">
         <v>0.35</v>
       </c>
       <c r="D322" s="2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E322" s="2" t="n">
         <v>0.31</v>
-      </c>
-      <c r="E322" s="2" t="n">
-        <v>0.32</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 20</t>
+          <t>2016 Semana 25</t>
         </is>
       </c>
       <c r="B323" s="2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="C323" s="2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D323" s="2" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="E323" s="2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 19</t>
+          <t>2016 Semana 24</t>
         </is>
       </c>
       <c r="B324" s="2" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="C324" s="2" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D324" s="2" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="E324" s="2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 18</t>
+          <t>2016 Semana 23</t>
         </is>
       </c>
       <c r="B325" s="2" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="C325" s="2" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="D325" s="2" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="E325" s="2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 17</t>
+          <t>2016 Semana 22</t>
         </is>
       </c>
       <c r="B326" s="2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="C326" s="2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>0.34</v>
       </c>
       <c r="E326" s="2" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 16</t>
+          <t>2016 Semana 21</t>
         </is>
       </c>
       <c r="B327" s="2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="C327" s="2" t="n">
         <v>0.35</v>
       </c>
       <c r="D327" s="2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="E327" s="2" t="n">
         <v>0.32</v>
@@ -15503,55 +15617,55 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 15</t>
+          <t>2016 Semana 20</t>
         </is>
       </c>
       <c r="B328" s="2" t="n">
         <v>0.32</v>
       </c>
       <c r="C328" s="2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D328" s="2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E328" s="2" t="n">
         <v>0.32</v>
-      </c>
-      <c r="E328" s="2" t="n">
-        <v>0.31</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 14</t>
+          <t>2016 Semana 19</t>
         </is>
       </c>
       <c r="B329" s="2" t="n">
         <v>0.32</v>
       </c>
       <c r="C329" s="2" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="D329" s="2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="E329" s="2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 13</t>
+          <t>2016 Semana 18</t>
         </is>
       </c>
       <c r="B330" s="2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="C330" s="2" t="n">
         <v>0.36</v>
       </c>
       <c r="D330" s="2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="E330" s="2" t="n">
         <v>0.32</v>
@@ -15560,26 +15674,26 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 12</t>
+          <t>2016 Semana 17</t>
         </is>
       </c>
       <c r="B331" s="2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="C331" s="2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="D331" s="2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E331" s="2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 11</t>
+          <t>2016 Semana 16</t>
         </is>
       </c>
       <c r="B332" s="2" t="n">
@@ -15598,190 +15712,285 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 10</t>
+          <t>2016 Semana 15</t>
         </is>
       </c>
       <c r="B333" s="2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="C333" s="2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D333" s="2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="E333" s="2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 09</t>
+          <t>2016 Semana 14</t>
         </is>
       </c>
       <c r="B334" s="2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="C334" s="2" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="D334" s="2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E334" s="2" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 08</t>
+          <t>2016 Semana 13</t>
         </is>
       </c>
       <c r="B335" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C335" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="C335" s="2" t="n">
-        <v>0.4</v>
-      </c>
       <c r="D335" s="2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="E335" s="2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 07</t>
+          <t>2016 Semana 12</t>
         </is>
       </c>
       <c r="B336" s="2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="C336" s="2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>0.35</v>
       </c>
       <c r="E336" s="2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 06</t>
+          <t>2016 Semana 11</t>
         </is>
       </c>
       <c r="B337" s="2" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="C337" s="2" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D337" s="2" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="E337" s="2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 05</t>
+          <t>2016 Semana 10</t>
         </is>
       </c>
       <c r="B338" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C338" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="C338" s="2" t="n">
-        <v>0.4</v>
-      </c>
       <c r="D338" s="2" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="E338" s="2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 04</t>
+          <t>2016 Semana 09</t>
         </is>
       </c>
       <c r="B339" s="2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="C339" s="2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="D339" s="2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="E339" s="2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 03</t>
+          <t>2016 Semana 08</t>
         </is>
       </c>
       <c r="B340" s="2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="C340" s="2" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="D340" s="2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E340" s="2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 02</t>
+          <t>2016 Semana 07</t>
         </is>
       </c>
       <c r="B341" s="2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="C341" s="2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="D341" s="2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E341" s="2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>2016 Semana 01</t>
+          <t>2016 Semana 06</t>
         </is>
       </c>
       <c r="B342" s="2" t="n">
         <v>0.36</v>
       </c>
       <c r="C342" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D342" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2016 Semana 05</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C343" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2016 Semana 04</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C344" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="D342" s="2" t="n">
+      <c r="D344" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="E342" s="2" t="n">
+      <c r="E344" s="2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2016 Semana 03</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C345" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E345" s="2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2016 Semana 02</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C346" s="2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E346" s="2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2016 Semana 01</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C347" s="2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E347" s="2" t="n">
         <v>0.36</v>
       </c>
     </row>
